--- a/evaluation/results/LOF/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/LOF/split_1/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2140314446751706</v>
       </c>
       <c r="H2">
-        <v>0.5823970037453183</v>
+        <v>0.7343559314901318</v>
       </c>
       <c r="I2">
         <v>111</v>
